--- a/WebRoot/static/template/budget/銷售收入預測表.xlsx
+++ b/WebRoot/static/template/budget/銷售收入預測表.xlsx
@@ -114,7 +114,7 @@
     <t>平均單價</t>
   </si>
   <si>
-    <t>Main Business</t>
+    <t>三大技術</t>
   </si>
 </sst>
 </file>
@@ -611,10 +611,13 @@
       <pane xSplit="13" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="7" t="s">
@@ -755,10 +758,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>

--- a/WebRoot/static/template/budget/銷售收入預測表.xlsx
+++ b/WebRoot/static/template/budget/銷售收入預測表.xlsx
@@ -105,9 +105,6 @@
     <t>產品系列</t>
   </si>
   <si>
-    <t>机种</t>
-  </si>
-  <si>
     <t xml:space="preserve">PM </t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>三大技術</t>
+  </si>
+  <si>
+    <t>機種</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
@@ -782,10 +782,10 @@
         <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>20</v>
@@ -802,7 +802,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
